--- a/Documentation/TimeSheet(3).xlsx
+++ b/Documentation/TimeSheet(3).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dinol\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8291AC-BC59-4CBA-A334-383B0EFA0E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FBC947-EC06-4C5F-8FF8-87C7F126F8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="47">
   <si>
     <t>Time Sheet</t>
   </si>
@@ -164,6 +164,15 @@
   </si>
   <si>
     <t>05-06-2022</t>
+  </si>
+  <si>
+    <t>02-06-2022</t>
+  </si>
+  <si>
+    <t>09-05-2022</t>
+  </si>
+  <si>
+    <t>13-05-2022</t>
   </si>
 </sst>
 </file>
@@ -915,7 +924,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1025,9 +1034,15 @@
       <c r="C5" s="9">
         <v>1</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
+      <c r="D5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="15">
+        <v>1</v>
+      </c>
       <c r="G5" s="16" t="s">
         <v>11</v>
       </c>
@@ -1051,9 +1066,15 @@
       <c r="C6" s="5">
         <v>3</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
       <c r="G6" s="3" t="s">
         <v>13</v>
       </c>
@@ -1074,9 +1095,15 @@
       <c r="C7" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2</v>
+      </c>
       <c r="G7" s="3" t="s">
         <v>15</v>
       </c>
@@ -1097,9 +1124,15 @@
       <c r="C8" s="5">
         <v>4</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
       <c r="G8" s="3" t="s">
         <v>17</v>
       </c>
@@ -1120,9 +1153,15 @@
       <c r="C9" s="5">
         <v>2</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
+      <c r="D9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.5</v>
+      </c>
       <c r="G9" s="3" t="s">
         <v>19</v>
       </c>
@@ -1146,9 +1185,15 @@
       <c r="C10" s="5">
         <v>0.6</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
+      <c r="D10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
       <c r="G10" s="3" t="s">
         <v>21</v>
       </c>
@@ -1169,9 +1214,15 @@
       <c r="C11" s="5">
         <v>2</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
+      <c r="D11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.6</v>
+      </c>
       <c r="G11" s="3" t="s">
         <v>22</v>
       </c>
@@ -1195,9 +1246,15 @@
       <c r="C12" s="5">
         <v>1</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
+      <c r="D12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="4">
+        <v>3</v>
+      </c>
       <c r="G12" s="3" t="s">
         <v>24</v>
       </c>
@@ -1221,9 +1278,15 @@
       <c r="C13" s="5">
         <v>1.5</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
+      <c r="D13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="4">
+        <v>4</v>
+      </c>
       <c r="G13" s="3" t="s">
         <v>25</v>
       </c>
@@ -1244,9 +1307,15 @@
       <c r="C14" s="5">
         <v>2</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
+      <c r="D14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1.5</v>
+      </c>
       <c r="G14" s="3" t="s">
         <v>26</v>
       </c>
@@ -1270,9 +1339,15 @@
       <c r="C15" s="5">
         <v>2.5</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
+      <c r="D15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="G15" s="3" t="s">
         <v>27</v>
       </c>
@@ -1296,9 +1371,15 @@
       <c r="C16" s="5">
         <v>1.5</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
+      <c r="D16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
       <c r="G16" s="3" t="s">
         <v>28</v>
       </c>
@@ -1322,9 +1403,15 @@
       <c r="C17" s="5">
         <v>0.5</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
+      <c r="D17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1.5</v>
+      </c>
       <c r="G17" s="3" t="s">
         <v>29</v>
       </c>
@@ -1346,9 +1433,15 @@
       <c r="C18" s="5">
         <v>3.5</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
+      <c r="D18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="G18" s="3" t="s">
         <v>30</v>
       </c>
@@ -1372,9 +1465,15 @@
       <c r="C19" s="5">
         <v>1.5</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="4"/>
+      <c r="D19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
       <c r="G19" s="3" t="s">
         <v>32</v>
       </c>
@@ -1395,9 +1494,15 @@
       <c r="C20" s="5">
         <v>5</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
+      <c r="D20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3</v>
+      </c>
       <c r="G20" s="3" t="s">
         <v>33</v>
       </c>
@@ -1418,9 +1523,15 @@
       <c r="C21" s="5">
         <v>2.5</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
+      <c r="D21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="4">
+        <v>4.5</v>
+      </c>
       <c r="G21" s="3" t="s">
         <v>34</v>
       </c>
@@ -1444,9 +1555,15 @@
       <c r="C22" s="5">
         <v>5.6</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
+      <c r="D22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="4">
+        <v>5.2</v>
+      </c>
       <c r="G22" s="3" t="s">
         <v>35</v>
       </c>
@@ -1465,9 +1582,15 @@
       <c r="C23" s="5">
         <v>6</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
+      <c r="D23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="4">
+        <v>6.5</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="25"/>
@@ -1498,7 +1621,7 @@
       <c r="E25" s="40"/>
       <c r="F25" s="7">
         <f>SUM(F5:F24)</f>
-        <v>0</v>
+        <v>44.500000000000007</v>
       </c>
       <c r="G25" s="39" t="s">
         <v>36</v>
